--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>253.06031032427</v>
+        <v>0.2142603333333334</v>
       </c>
       <c r="H2">
-        <v>253.06031032427</v>
+        <v>0.642781</v>
       </c>
       <c r="I2">
-        <v>0.9715247796311882</v>
+        <v>0.0008189883677700239</v>
       </c>
       <c r="J2">
-        <v>0.9715247796311882</v>
+        <v>0.0008189883677700238</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.74463094515539</v>
+        <v>10.39091433333333</v>
       </c>
       <c r="N2">
-        <v>7.74463094515539</v>
+        <v>31.172743</v>
       </c>
       <c r="O2">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="P2">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="Q2">
-        <v>1959.858710327968</v>
+        <v>2.226360768698111</v>
       </c>
       <c r="R2">
-        <v>1959.858710327968</v>
+        <v>20.037246918283</v>
       </c>
       <c r="S2">
-        <v>0.06377405491237333</v>
+        <v>6.839360794339492E-05</v>
       </c>
       <c r="T2">
-        <v>0.06377405491237333</v>
+        <v>6.839360794339491E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>253.06031032427</v>
+        <v>0.2142603333333334</v>
       </c>
       <c r="H3">
-        <v>253.06031032427</v>
+        <v>0.642781</v>
       </c>
       <c r="I3">
-        <v>0.9715247796311882</v>
+        <v>0.0008189883677700239</v>
       </c>
       <c r="J3">
-        <v>0.9715247796311882</v>
+        <v>0.0008189883677700238</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6699681632489</v>
+        <v>35.71561933333334</v>
       </c>
       <c r="N3">
-        <v>35.6699681632489</v>
+        <v>107.146858</v>
       </c>
       <c r="O3">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="P3">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="Q3">
-        <v>9026.653212648598</v>
+        <v>7.652440503566446</v>
       </c>
       <c r="R3">
-        <v>9026.653212648598</v>
+        <v>68.871964532098</v>
       </c>
       <c r="S3">
-        <v>0.2937284583958961</v>
+        <v>0.0002350823024595111</v>
       </c>
       <c r="T3">
-        <v>0.2937284583958961</v>
+        <v>0.0002350823024595111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>253.06031032427</v>
+        <v>0.2142603333333334</v>
       </c>
       <c r="H4">
-        <v>253.06031032427</v>
+        <v>0.642781</v>
       </c>
       <c r="I4">
-        <v>0.9715247796311882</v>
+        <v>0.0008189883677700239</v>
       </c>
       <c r="J4">
-        <v>0.9715247796311882</v>
+        <v>0.0008189883677700238</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.3259943098677</v>
+        <v>51.87044599999999</v>
       </c>
       <c r="N4">
-        <v>48.3259943098677</v>
+        <v>155.611338</v>
       </c>
       <c r="O4">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="P4">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="Q4">
-        <v>12229.39111678403</v>
+        <v>11.11377905010867</v>
       </c>
       <c r="R4">
-        <v>12229.39111678403</v>
+        <v>100.024011450978</v>
       </c>
       <c r="S4">
-        <v>0.3979459623883611</v>
+        <v>0.0003414143196419741</v>
       </c>
       <c r="T4">
-        <v>0.3979459623883611</v>
+        <v>0.0003414143196419741</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>253.06031032427</v>
+        <v>0.2142603333333334</v>
       </c>
       <c r="H5">
-        <v>253.06031032427</v>
+        <v>0.642781</v>
       </c>
       <c r="I5">
-        <v>0.9715247796311882</v>
+        <v>0.0008189883677700239</v>
       </c>
       <c r="J5">
-        <v>0.9715247796311882</v>
+        <v>0.0008189883677700238</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.2400004557606</v>
+        <v>26.450408</v>
       </c>
       <c r="N5">
-        <v>26.2400004557606</v>
+        <v>79.351224</v>
       </c>
       <c r="O5">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="P5">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="Q5">
-        <v>6640.302658243764</v>
+        <v>5.667273234882667</v>
       </c>
       <c r="R5">
-        <v>6640.302658243764</v>
+        <v>51.00545911394401</v>
       </c>
       <c r="S5">
-        <v>0.2160763039345578</v>
+        <v>0.0001740981377251437</v>
       </c>
       <c r="T5">
-        <v>0.2160763039345578</v>
+        <v>0.0001740981377251437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.41715317422889</v>
+        <v>253.9688163333334</v>
       </c>
       <c r="H6">
-        <v>7.41715317422889</v>
+        <v>761.9064490000001</v>
       </c>
       <c r="I6">
-        <v>0.02847522036881181</v>
+        <v>0.9707700119635848</v>
       </c>
       <c r="J6">
-        <v>0.02847522036881181</v>
+        <v>0.9707700119635847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.74463094515539</v>
+        <v>10.39091433333333</v>
       </c>
       <c r="N6">
-        <v>7.74463094515539</v>
+        <v>31.172743</v>
       </c>
       <c r="O6">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="P6">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="Q6">
-        <v>57.44311399809059</v>
+        <v>2638.968213857735</v>
       </c>
       <c r="R6">
-        <v>57.44311399809059</v>
+        <v>23750.71392471961</v>
       </c>
       <c r="S6">
-        <v>0.001869206329592459</v>
+        <v>0.08106887254360384</v>
       </c>
       <c r="T6">
-        <v>0.001869206329592459</v>
+        <v>0.08106887254360383</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.41715317422889</v>
+        <v>253.9688163333334</v>
       </c>
       <c r="H7">
-        <v>7.41715317422889</v>
+        <v>761.9064490000001</v>
       </c>
       <c r="I7">
-        <v>0.02847522036881181</v>
+        <v>0.9707700119635848</v>
       </c>
       <c r="J7">
-        <v>0.02847522036881181</v>
+        <v>0.9707700119635847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.6699681632489</v>
+        <v>35.71561933333334</v>
       </c>
       <c r="N7">
-        <v>35.6699681632489</v>
+        <v>107.146858</v>
       </c>
       <c r="O7">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="P7">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="Q7">
-        <v>264.5696175866851</v>
+        <v>9070.653566698584</v>
       </c>
       <c r="R7">
-        <v>264.5696175866851</v>
+        <v>81635.88210028726</v>
       </c>
       <c r="S7">
-        <v>0.008609129439384614</v>
+        <v>0.2786496836242361</v>
       </c>
       <c r="T7">
-        <v>0.008609129439384614</v>
+        <v>0.2786496836242361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.41715317422889</v>
+        <v>253.9688163333334</v>
       </c>
       <c r="H8">
-        <v>7.41715317422889</v>
+        <v>761.9064490000001</v>
       </c>
       <c r="I8">
-        <v>0.02847522036881181</v>
+        <v>0.9707700119635848</v>
       </c>
       <c r="J8">
-        <v>0.02847522036881181</v>
+        <v>0.9707700119635847</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.3259943098677</v>
+        <v>51.87044599999999</v>
       </c>
       <c r="N8">
-        <v>48.3259943098677</v>
+        <v>155.611338</v>
       </c>
       <c r="O8">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="P8">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="Q8">
-        <v>358.4413020932025</v>
+        <v>13173.47577330209</v>
       </c>
       <c r="R8">
-        <v>358.4413020932025</v>
+        <v>118561.2819597188</v>
       </c>
       <c r="S8">
-        <v>0.01166372614622264</v>
+        <v>0.4046880226953931</v>
       </c>
       <c r="T8">
-        <v>0.01166372614622264</v>
+        <v>0.4046880226953931</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>253.9688163333334</v>
+      </c>
+      <c r="H9">
+        <v>761.9064490000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9707700119635848</v>
+      </c>
+      <c r="J9">
+        <v>0.9707700119635847</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>26.450408</v>
+      </c>
+      <c r="N9">
+        <v>79.351224</v>
+      </c>
+      <c r="O9">
+        <v>0.2125770579613792</v>
+      </c>
+      <c r="P9">
+        <v>0.2125770579613792</v>
+      </c>
+      <c r="Q9">
+        <v>6717.578811293732</v>
+      </c>
+      <c r="R9">
+        <v>60458.20930164358</v>
+      </c>
+      <c r="S9">
+        <v>0.2063634331003518</v>
+      </c>
+      <c r="T9">
+        <v>0.2063634331003518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.014556</v>
+      </c>
+      <c r="H10">
+        <v>0.043668</v>
+      </c>
+      <c r="I10">
+        <v>5.563883195642279E-05</v>
+      </c>
+      <c r="J10">
+        <v>5.563883195642279E-05</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10.39091433333333</v>
+      </c>
+      <c r="N10">
+        <v>31.172743</v>
+      </c>
+      <c r="O10">
+        <v>0.0835098648954196</v>
+      </c>
+      <c r="P10">
+        <v>0.0835098648954196</v>
+      </c>
+      <c r="Q10">
+        <v>0.151250149036</v>
+      </c>
+      <c r="R10">
+        <v>1.361251341324</v>
+      </c>
+      <c r="S10">
+        <v>4.646391339619822E-06</v>
+      </c>
+      <c r="T10">
+        <v>4.646391339619822E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.014556</v>
+      </c>
+      <c r="H11">
+        <v>0.043668</v>
+      </c>
+      <c r="I11">
+        <v>5.563883195642279E-05</v>
+      </c>
+      <c r="J11">
+        <v>5.563883195642279E-05</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>35.71561933333334</v>
+      </c>
+      <c r="N11">
+        <v>107.146858</v>
+      </c>
+      <c r="O11">
+        <v>0.287039855156433</v>
+      </c>
+      <c r="P11">
+        <v>0.287039855156433</v>
+      </c>
+      <c r="Q11">
+        <v>0.5198765550160001</v>
+      </c>
+      <c r="R11">
+        <v>4.678888995144</v>
+      </c>
+      <c r="S11">
+        <v>1.597056226584471E-05</v>
+      </c>
+      <c r="T11">
+        <v>1.597056226584471E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.014556</v>
+      </c>
+      <c r="H12">
+        <v>0.043668</v>
+      </c>
+      <c r="I12">
+        <v>5.563883195642279E-05</v>
+      </c>
+      <c r="J12">
+        <v>5.563883195642279E-05</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>51.87044599999999</v>
+      </c>
+      <c r="N12">
+        <v>155.611338</v>
+      </c>
+      <c r="O12">
+        <v>0.4168732219867682</v>
+      </c>
+      <c r="P12">
+        <v>0.4168732219867682</v>
+      </c>
+      <c r="Q12">
+        <v>0.7550262119759998</v>
+      </c>
+      <c r="R12">
+        <v>6.795235907783999</v>
+      </c>
+      <c r="S12">
+        <v>2.319433914525433E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.319433914525433E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.014556</v>
+      </c>
+      <c r="H13">
+        <v>0.043668</v>
+      </c>
+      <c r="I13">
+        <v>5.563883195642279E-05</v>
+      </c>
+      <c r="J13">
+        <v>5.563883195642279E-05</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>26.450408</v>
+      </c>
+      <c r="N13">
+        <v>79.351224</v>
+      </c>
+      <c r="O13">
+        <v>0.2125770579613792</v>
+      </c>
+      <c r="P13">
+        <v>0.2125770579613792</v>
+      </c>
+      <c r="Q13">
+        <v>0.385012138848</v>
+      </c>
+      <c r="R13">
+        <v>3.465109249632</v>
+      </c>
+      <c r="S13">
+        <v>1.182753920570393E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.182753920570393E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.418211666666667</v>
+      </c>
+      <c r="H14">
+        <v>22.254635</v>
+      </c>
+      <c r="I14">
+        <v>0.02835536083668877</v>
+      </c>
+      <c r="J14">
+        <v>0.02835536083668877</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10.39091433333333</v>
+      </c>
+      <c r="N14">
+        <v>31.172743</v>
+      </c>
+      <c r="O14">
+        <v>0.0835098648954196</v>
+      </c>
+      <c r="P14">
+        <v>0.0835098648954196</v>
+      </c>
+      <c r="Q14">
+        <v>77.08200193486722</v>
+      </c>
+      <c r="R14">
+        <v>693.738017413805</v>
+      </c>
+      <c r="S14">
+        <v>0.002367952352532751</v>
+      </c>
+      <c r="T14">
+        <v>0.002367952352532751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>7.41715317422889</v>
-      </c>
-      <c r="H9">
-        <v>7.41715317422889</v>
-      </c>
-      <c r="I9">
-        <v>0.02847522036881181</v>
-      </c>
-      <c r="J9">
-        <v>0.02847522036881181</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>26.2400004557606</v>
-      </c>
-      <c r="N9">
-        <v>26.2400004557606</v>
-      </c>
-      <c r="O9">
-        <v>0.2224094623881699</v>
-      </c>
-      <c r="P9">
-        <v>0.2224094623881699</v>
-      </c>
-      <c r="Q9">
-        <v>194.6261026722123</v>
-      </c>
-      <c r="R9">
-        <v>194.6261026722123</v>
-      </c>
-      <c r="S9">
-        <v>0.0063331584536121</v>
-      </c>
-      <c r="T9">
-        <v>0.0063331584536121</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.418211666666667</v>
+      </c>
+      <c r="H15">
+        <v>22.254635</v>
+      </c>
+      <c r="I15">
+        <v>0.02835536083668877</v>
+      </c>
+      <c r="J15">
+        <v>0.02835536083668877</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>35.71561933333334</v>
+      </c>
+      <c r="N15">
+        <v>107.146858</v>
+      </c>
+      <c r="O15">
+        <v>0.287039855156433</v>
+      </c>
+      <c r="P15">
+        <v>0.287039855156433</v>
+      </c>
+      <c r="Q15">
+        <v>264.9460240207589</v>
+      </c>
+      <c r="R15">
+        <v>2384.51421618683</v>
+      </c>
+      <c r="S15">
+        <v>0.008139118667471537</v>
+      </c>
+      <c r="T15">
+        <v>0.008139118667471537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.418211666666667</v>
+      </c>
+      <c r="H16">
+        <v>22.254635</v>
+      </c>
+      <c r="I16">
+        <v>0.02835536083668877</v>
+      </c>
+      <c r="J16">
+        <v>0.02835536083668877</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>51.87044599999999</v>
+      </c>
+      <c r="N16">
+        <v>155.611338</v>
+      </c>
+      <c r="O16">
+        <v>0.4168732219867682</v>
+      </c>
+      <c r="P16">
+        <v>0.4168732219867682</v>
+      </c>
+      <c r="Q16">
+        <v>384.7859476724033</v>
+      </c>
+      <c r="R16">
+        <v>3463.07352905163</v>
+      </c>
+      <c r="S16">
+        <v>0.01182059063258787</v>
+      </c>
+      <c r="T16">
+        <v>0.01182059063258787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.418211666666667</v>
+      </c>
+      <c r="H17">
+        <v>22.254635</v>
+      </c>
+      <c r="I17">
+        <v>0.02835536083668877</v>
+      </c>
+      <c r="J17">
+        <v>0.02835536083668877</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>26.450408</v>
+      </c>
+      <c r="N17">
+        <v>79.351224</v>
+      </c>
+      <c r="O17">
+        <v>0.2125770579613792</v>
+      </c>
+      <c r="P17">
+        <v>0.2125770579613792</v>
+      </c>
+      <c r="Q17">
+        <v>196.2147252136933</v>
+      </c>
+      <c r="R17">
+        <v>1765.93252692324</v>
+      </c>
+      <c r="S17">
+        <v>0.00602769918409661</v>
+      </c>
+      <c r="T17">
+        <v>0.006027699184096611</v>
       </c>
     </row>
   </sheetData>
